--- a/경제변수/조인/경제요소 정리.xlsx
+++ b/경제변수/조인/경제요소 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Documents\GitHub\Group2\경제변수\조인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\DOCUME~1\GitHub\Group2\경제변수\조인\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51251750-D020-4D5C-B754-A55BAB33D592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A524C-F773-4636-9A17-6E707AE43F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF7ABF6B-29C6-406C-A387-963FE8127380}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,22 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>논문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도 60%이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설  명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영향을 주는 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +170,34 @@
   </si>
   <si>
     <t>적용하기 어렵고, 중요도도 낮음-뺌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12개월로 나눠서 오르거나 내리거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역만 구분하여 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인구수 순이동수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdp는 분기별로 데이터 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grdp는 연도별로 데이터있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 못함. 양이 많고 시간 오래 걸림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398A9C9-9BB2-4D89-89AF-896AD1558D11}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -568,10 +580,13 @@
     <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.59765625" customWidth="1"/>
+    <col min="8" max="9" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -579,16 +594,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -596,22 +608,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
+      <c r="F3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -619,19 +625,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>94.9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -639,16 +639,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>61.2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -656,19 +653,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
         <v>51.8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -676,16 +670,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>59.2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -693,16 +684,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>64.2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -710,16 +698,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="F9">
         <v>83.2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -727,16 +712,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="F10">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -744,16 +726,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="F11">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -761,16 +740,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="F12">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -778,19 +754,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -798,16 +771,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="F14">
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -815,19 +785,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
         <v>59.3</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -835,36 +802,30 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="F16">
         <v>50.2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
         <v>28.2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -872,94 +833,112 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="F18">
         <v>93.1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>28</v>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" t="s">
-        <v>28</v>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
         <v>16.18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
     </row>
   </sheetData>
